--- a/marketdo4a-msk-riverstart.xlsx
+++ b/marketdo4a-msk-riverstart.xlsx
@@ -1,20 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\dev\direct-stat-xlsx\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="9660" windowWidth="16095" xWindow="240" yWindow="15"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="133">
   <si>
     <t>Кампания</t>
   </si>
@@ -46,53 +51,391 @@
     <t>CV</t>
   </si>
   <si>
+    <t>Омега - Общая - Поиск - МСК</t>
+  </si>
+  <si>
+    <t>2238</t>
+  </si>
+  <si>
+    <t>117</t>
+  </si>
+  <si>
+    <t>5,23</t>
+  </si>
+  <si>
+    <t>1249,09</t>
+  </si>
+  <si>
+    <t>Омега - Горячая - Поиск - МСК</t>
+  </si>
+  <si>
+    <t>127</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>9,45</t>
+  </si>
+  <si>
+    <t>163,82</t>
+  </si>
+  <si>
+    <t>Изоляты - Горячая - Поиск - МСК</t>
+  </si>
+  <si>
+    <t>424</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>5,90</t>
+  </si>
+  <si>
+    <t>647,68</t>
+  </si>
+  <si>
+    <t>Изоляты - Общая - Поиск - МСК</t>
+  </si>
+  <si>
+    <t>1555</t>
+  </si>
+  <si>
+    <t>43</t>
+  </si>
+  <si>
+    <t>2,77</t>
+  </si>
+  <si>
+    <t>898,50</t>
+  </si>
+  <si>
+    <t>Динамические объявления - Поиск - Москва</t>
+  </si>
+  <si>
+    <t>4213</t>
+  </si>
+  <si>
+    <t>247</t>
+  </si>
+  <si>
+    <t>5,86</t>
+  </si>
+  <si>
+    <t>4500,96</t>
+  </si>
+  <si>
     <t>Гейнер - Общая - Поиск - МСК</t>
   </si>
   <si>
-    <t>27</t>
+    <t>3922</t>
+  </si>
+  <si>
+    <t>254</t>
+  </si>
+  <si>
+    <t>6,48</t>
+  </si>
+  <si>
+    <t>3538,43</t>
   </si>
   <si>
     <t>2</t>
   </si>
   <si>
-    <t>7,41</t>
-  </si>
-  <si>
-    <t>24,31</t>
+    <t>4295,00</t>
+  </si>
+  <si>
+    <t>Протеин - Общая - Поиск - МСК</t>
+  </si>
+  <si>
+    <t>8820</t>
+  </si>
+  <si>
+    <t>503</t>
+  </si>
+  <si>
+    <t>5,70</t>
+  </si>
+  <si>
+    <t>8917,53</t>
+  </si>
+  <si>
+    <t>5408,50</t>
+  </si>
+  <si>
+    <t>Протеин - Горячая - Поиск - МСК</t>
+  </si>
+  <si>
+    <t>8327</t>
+  </si>
+  <si>
+    <t>812</t>
+  </si>
+  <si>
+    <t>9,75</t>
+  </si>
+  <si>
+    <t>24348,91</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>33004,50</t>
+  </si>
+  <si>
+    <t>Гейнер - Горячая - Поиск - МСК</t>
+  </si>
+  <si>
+    <t>1089</t>
+  </si>
+  <si>
+    <t>149</t>
+  </si>
+  <si>
+    <t>13,68</t>
+  </si>
+  <si>
+    <t>3212,34</t>
+  </si>
+  <si>
+    <t>МКб по категориям - Поиск - Москва</t>
+  </si>
+  <si>
+    <t>33193</t>
+  </si>
+  <si>
+    <t>242</t>
+  </si>
+  <si>
+    <t>0,73</t>
+  </si>
+  <si>
+    <t>14007,43</t>
+  </si>
+  <si>
+    <t>Bcaa - Общие - Поиск - МСК</t>
+  </si>
+  <si>
+    <t>6325</t>
+  </si>
+  <si>
+    <t>141</t>
+  </si>
+  <si>
+    <t>2,23</t>
+  </si>
+  <si>
+    <t>2696,91</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2110,00</t>
+  </si>
+  <si>
+    <t>Bcaa - Горячие - Поиск - МСК</t>
+  </si>
+  <si>
+    <t>2180</t>
+  </si>
+  <si>
+    <t>193</t>
+  </si>
+  <si>
+    <t>8,85</t>
+  </si>
+  <si>
+    <t>4547,34</t>
+  </si>
+  <si>
+    <t>11358,00</t>
+  </si>
+  <si>
+    <t>МКБ на конкурентов - Поиск - Москва</t>
+  </si>
+  <si>
+    <t>9769</t>
+  </si>
+  <si>
+    <t>35</t>
+  </si>
+  <si>
+    <t>0,36</t>
+  </si>
+  <si>
+    <t>4282,63</t>
+  </si>
+  <si>
+    <t>1590,00</t>
+  </si>
+  <si>
+    <t>Карнитин - Общие - Поиск - МСК</t>
+  </si>
+  <si>
+    <t>9137</t>
+  </si>
+  <si>
+    <t>532</t>
+  </si>
+  <si>
+    <t>5,82</t>
+  </si>
+  <si>
+    <t>13832,60</t>
+  </si>
+  <si>
+    <t>Карнитин - Горячие - Поиск - МСК</t>
+  </si>
+  <si>
+    <t>2373</t>
+  </si>
+  <si>
+    <t>265</t>
+  </si>
+  <si>
+    <t>11,17</t>
+  </si>
+  <si>
+    <t>5443,87</t>
+  </si>
+  <si>
+    <t>Ретаргет общий - Посетит 45 дн кроме покуп за последн 14 дн - Сети - МСК</t>
+  </si>
+  <si>
+    <t>11224</t>
+  </si>
+  <si>
+    <t>96</t>
+  </si>
+  <si>
+    <t>0,86</t>
+  </si>
+  <si>
+    <t>1958,70</t>
+  </si>
+  <si>
+    <t>Конкуренты - Поиск - Москва</t>
+  </si>
+  <si>
+    <t>23957</t>
+  </si>
+  <si>
+    <t>328</t>
+  </si>
+  <si>
+    <t>1,37</t>
+  </si>
+  <si>
+    <t>12394,19</t>
+  </si>
+  <si>
+    <t>720,00</t>
+  </si>
+  <si>
+    <t>Бренд - РСЯ - Москва</t>
+  </si>
+  <si>
+    <t>310</t>
+  </si>
+  <si>
+    <t>0,32</t>
+  </si>
+  <si>
+    <t>3,19</t>
+  </si>
+  <si>
+    <t>Карнитин - РСЯ - Москва</t>
+  </si>
+  <si>
+    <t>575</t>
+  </si>
+  <si>
+    <t>0,35</t>
+  </si>
+  <si>
+    <t>35,91</t>
+  </si>
+  <si>
+    <t>Bcaa - РСЯ - Москва</t>
+  </si>
+  <si>
+    <t>814</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>1,11</t>
+  </si>
+  <si>
+    <t>61,15</t>
+  </si>
+  <si>
+    <t>Изолят - РСЯ - Москва</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>0</t>
   </si>
   <si>
     <t>0,00</t>
   </si>
   <si>
-    <t>Бренд - РСЯ - Москва</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>Total rows: 2</t>
+    <t>Гейнер - РСЯ - Москва</t>
+  </si>
+  <si>
+    <t>390</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>1,79</t>
+  </si>
+  <si>
+    <t>95,48</t>
+  </si>
+  <si>
+    <t>Протеин - РСЯ - Москва</t>
+  </si>
+  <si>
+    <t>2990</t>
+  </si>
+  <si>
+    <t>44</t>
+  </si>
+  <si>
+    <t>1,47</t>
+  </si>
+  <si>
+    <t>540,82</t>
+  </si>
+  <si>
+    <t>Total rows: 23</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -108,15 +451,24 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -404,20 +756,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:J4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="30.28515625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -449,7 +798,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -465,62 +814,783 @@
       <c r="E2" t="s">
         <v>14</v>
       </c>
-      <c r="F2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G2" t="s">
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <f t="shared" ref="H2:H21" si="0">E2/C2</f>
+        <v>10.675982905982906</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <f t="shared" ref="J2:J21" si="1">F2/C2</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>15</v>
       </c>
-      <c r="H2">
-        <f>E2/C2</f>
-        <v/>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2">
-        <f>F2/C2</f>
-        <v/>
-      </c>
-    </row>
-    <row r="3" spans="1:10">
-      <c r="A3" t="s">
+      <c r="B3" t="s">
         <v>16</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>17</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>18</v>
       </c>
-      <c r="D3" t="s">
-        <v>15</v>
-      </c>
       <c r="E3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10">
+        <v>19</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <f t="shared" si="0"/>
+        <v>13.651666666666666</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>19</v>
+        <v>20</v>
+      </c>
+      <c r="B4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <f t="shared" si="0"/>
+        <v>25.9072</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E5" t="s">
+        <v>29</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <f t="shared" si="0"/>
+        <v>20.895348837209301</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D6" t="s">
+        <v>33</v>
+      </c>
+      <c r="E6" t="s">
+        <v>34</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="0"/>
+        <v>18.222510121457489</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>35</v>
+      </c>
+      <c r="B7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C7" t="s">
+        <v>37</v>
+      </c>
+      <c r="D7" t="s">
+        <v>38</v>
+      </c>
+      <c r="E7" t="s">
+        <v>39</v>
+      </c>
+      <c r="F7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G7" t="s">
+        <v>41</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="0"/>
+        <v>13.930826771653543</v>
+      </c>
+      <c r="I7">
+        <f>E7/F7</f>
+        <v>1769.2149999999999</v>
+      </c>
+      <c r="J7">
+        <f t="shared" si="1"/>
+        <v>7.874015748031496E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>42</v>
+      </c>
+      <c r="B8" t="s">
+        <v>43</v>
+      </c>
+      <c r="C8" t="s">
+        <v>44</v>
+      </c>
+      <c r="D8" t="s">
+        <v>45</v>
+      </c>
+      <c r="E8" t="s">
+        <v>46</v>
+      </c>
+      <c r="F8" t="s">
+        <v>40</v>
+      </c>
+      <c r="G8" t="s">
+        <v>47</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="0"/>
+        <v>17.72868787276342</v>
+      </c>
+      <c r="I8">
+        <f>E8/F8</f>
+        <v>4458.7650000000003</v>
+      </c>
+      <c r="J8">
+        <f t="shared" si="1"/>
+        <v>3.9761431411530811E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>48</v>
+      </c>
+      <c r="B9" t="s">
+        <v>49</v>
+      </c>
+      <c r="C9" t="s">
+        <v>50</v>
+      </c>
+      <c r="D9" t="s">
+        <v>51</v>
+      </c>
+      <c r="E9" t="s">
+        <v>52</v>
+      </c>
+      <c r="F9" t="s">
+        <v>53</v>
+      </c>
+      <c r="G9" t="s">
+        <v>54</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="0"/>
+        <v>29.986342364532021</v>
+      </c>
+      <c r="I9">
+        <f>E9/F9</f>
+        <v>3043.61375</v>
+      </c>
+      <c r="J9">
+        <f t="shared" si="1"/>
+        <v>9.852216748768473E-3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>55</v>
+      </c>
+      <c r="B10" t="s">
+        <v>56</v>
+      </c>
+      <c r="C10" t="s">
+        <v>57</v>
+      </c>
+      <c r="D10" t="s">
+        <v>58</v>
+      </c>
+      <c r="E10" t="s">
+        <v>59</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <f t="shared" si="0"/>
+        <v>21.559328859060404</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>60</v>
+      </c>
+      <c r="B11" t="s">
+        <v>61</v>
+      </c>
+      <c r="C11" t="s">
+        <v>62</v>
+      </c>
+      <c r="D11" t="s">
+        <v>63</v>
+      </c>
+      <c r="E11" t="s">
+        <v>64</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <f t="shared" si="0"/>
+        <v>57.881942148760331</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>65</v>
+      </c>
+      <c r="B12" t="s">
+        <v>66</v>
+      </c>
+      <c r="C12" t="s">
+        <v>67</v>
+      </c>
+      <c r="D12" t="s">
+        <v>68</v>
+      </c>
+      <c r="E12" t="s">
+        <v>69</v>
+      </c>
+      <c r="F12" t="s">
+        <v>70</v>
+      </c>
+      <c r="G12" t="s">
+        <v>71</v>
+      </c>
+      <c r="H12">
+        <f t="shared" si="0"/>
+        <v>19.127021276595745</v>
+      </c>
+      <c r="I12">
+        <f>E12/F12</f>
+        <v>2696.91</v>
+      </c>
+      <c r="J12">
+        <f t="shared" si="1"/>
+        <v>7.0921985815602835E-3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>72</v>
+      </c>
+      <c r="B13" t="s">
+        <v>73</v>
+      </c>
+      <c r="C13" t="s">
+        <v>74</v>
+      </c>
+      <c r="D13" t="s">
+        <v>75</v>
+      </c>
+      <c r="E13" t="s">
+        <v>76</v>
+      </c>
+      <c r="F13" t="s">
+        <v>40</v>
+      </c>
+      <c r="G13" t="s">
+        <v>77</v>
+      </c>
+      <c r="H13">
+        <f t="shared" si="0"/>
+        <v>23.561347150259067</v>
+      </c>
+      <c r="I13">
+        <f>E13/F13</f>
+        <v>2273.67</v>
+      </c>
+      <c r="J13">
+        <f t="shared" si="1"/>
+        <v>1.0362694300518135E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>78</v>
+      </c>
+      <c r="B14" t="s">
+        <v>79</v>
+      </c>
+      <c r="C14" t="s">
+        <v>80</v>
+      </c>
+      <c r="D14" t="s">
+        <v>81</v>
+      </c>
+      <c r="E14" t="s">
+        <v>82</v>
+      </c>
+      <c r="F14" t="s">
+        <v>70</v>
+      </c>
+      <c r="G14" t="s">
+        <v>83</v>
+      </c>
+      <c r="H14">
+        <f t="shared" si="0"/>
+        <v>122.36085714285714</v>
+      </c>
+      <c r="I14">
+        <f>E14/F14</f>
+        <v>4282.63</v>
+      </c>
+      <c r="J14">
+        <f t="shared" si="1"/>
+        <v>2.8571428571428571E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>84</v>
+      </c>
+      <c r="B15" t="s">
+        <v>85</v>
+      </c>
+      <c r="C15" t="s">
+        <v>86</v>
+      </c>
+      <c r="D15" t="s">
+        <v>87</v>
+      </c>
+      <c r="E15" t="s">
+        <v>88</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <f t="shared" si="0"/>
+        <v>26.001127819548874</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>89</v>
+      </c>
+      <c r="B16" t="s">
+        <v>90</v>
+      </c>
+      <c r="C16" t="s">
+        <v>91</v>
+      </c>
+      <c r="D16" t="s">
+        <v>92</v>
+      </c>
+      <c r="E16" t="s">
+        <v>93</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <f t="shared" si="0"/>
+        <v>20.542905660377357</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>94</v>
+      </c>
+      <c r="B17" t="s">
+        <v>95</v>
+      </c>
+      <c r="C17" t="s">
+        <v>96</v>
+      </c>
+      <c r="D17" t="s">
+        <v>97</v>
+      </c>
+      <c r="E17" t="s">
+        <v>98</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <f t="shared" si="0"/>
+        <v>20.403124999999999</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>99</v>
+      </c>
+      <c r="B18" t="s">
+        <v>100</v>
+      </c>
+      <c r="C18" t="s">
+        <v>101</v>
+      </c>
+      <c r="D18" t="s">
+        <v>102</v>
+      </c>
+      <c r="E18" t="s">
+        <v>103</v>
+      </c>
+      <c r="F18" t="s">
+        <v>70</v>
+      </c>
+      <c r="G18" t="s">
+        <v>104</v>
+      </c>
+      <c r="H18">
+        <f t="shared" si="0"/>
+        <v>37.787164634146343</v>
+      </c>
+      <c r="I18">
+        <f>E18/F18</f>
+        <v>12394.19</v>
+      </c>
+      <c r="J18">
+        <f t="shared" si="1"/>
+        <v>3.0487804878048782E-3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>105</v>
+      </c>
+      <c r="B19" t="s">
+        <v>106</v>
+      </c>
+      <c r="C19" t="s">
+        <v>70</v>
+      </c>
+      <c r="D19" t="s">
+        <v>107</v>
+      </c>
+      <c r="E19" t="s">
+        <v>108</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <f t="shared" si="0"/>
+        <v>3.19</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>109</v>
+      </c>
+      <c r="B20" t="s">
+        <v>110</v>
+      </c>
+      <c r="C20" t="s">
+        <v>40</v>
+      </c>
+      <c r="D20" t="s">
+        <v>111</v>
+      </c>
+      <c r="E20" t="s">
+        <v>112</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="H20">
+        <f t="shared" si="0"/>
+        <v>17.954999999999998</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>113</v>
+      </c>
+      <c r="B21" t="s">
+        <v>114</v>
+      </c>
+      <c r="C21" t="s">
+        <v>115</v>
+      </c>
+      <c r="D21" t="s">
+        <v>116</v>
+      </c>
+      <c r="E21" t="s">
+        <v>117</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="H21">
+        <f t="shared" si="0"/>
+        <v>6.7944444444444443</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>118</v>
+      </c>
+      <c r="B22" t="s">
+        <v>119</v>
+      </c>
+      <c r="C22" t="s">
+        <v>120</v>
+      </c>
+      <c r="D22" t="s">
+        <v>121</v>
+      </c>
+      <c r="E22" t="s">
+        <v>121</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>122</v>
+      </c>
+      <c r="B23" t="s">
+        <v>123</v>
+      </c>
+      <c r="C23" t="s">
+        <v>124</v>
+      </c>
+      <c r="D23" t="s">
+        <v>125</v>
+      </c>
+      <c r="E23" t="s">
+        <v>126</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <f>E23/C23</f>
+        <v>13.64</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <f>F23/C23</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>127</v>
+      </c>
+      <c r="B24" t="s">
+        <v>128</v>
+      </c>
+      <c r="C24" t="s">
+        <v>129</v>
+      </c>
+      <c r="D24" t="s">
+        <v>130</v>
+      </c>
+      <c r="E24" t="s">
+        <v>131</v>
+      </c>
+      <c r="F24">
+        <v>0</v>
+      </c>
+      <c r="G24">
+        <v>0</v>
+      </c>
+      <c r="H24">
+        <f>E24/C24</f>
+        <v>12.291363636363638</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <f>F24/C24</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>132</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>